--- a/ResultadoEleicoesDistritos/FARO_SILVES.xlsx
+++ b/ResultadoEleicoesDistritos/FARO_SILVES.xlsx
@@ -597,64 +597,64 @@
         <v>9197</v>
       </c>
       <c r="H2" t="n">
-        <v>324</v>
+        <v>374</v>
       </c>
       <c r="I2" t="n">
-        <v>914</v>
+        <v>944</v>
       </c>
       <c r="J2" t="n">
-        <v>3755</v>
+        <v>3657</v>
       </c>
       <c r="K2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="M2" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="N2" t="n">
-        <v>632</v>
+        <v>679</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R2" t="n">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="S2" t="n">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="T2" t="n">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="U2" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="V2" t="n">
-        <v>5952</v>
+        <v>5983</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>5953</v>
+        <v>5896</v>
       </c>
       <c r="Y2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AA2" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
